--- a/data/outputs/OR/45.xlsx
+++ b/data/outputs/OR/45.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ55"/>
+  <dimension ref="A1:BR55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +930,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>12671495</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1144,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>55258980</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1355,6 +1370,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1568,6 +1584,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1777,6 +1794,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1978,6 +1996,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>2027446</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2187,6 +2210,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2400,6 +2424,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2621,6 +2646,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2838,6 +2864,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3047,6 +3074,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3268,6 +3296,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3465,6 +3494,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3666,6 +3696,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3883,6 +3914,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4084,6 +4116,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4305,6 +4338,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4514,6 +4548,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4600,7 +4635,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Lee, Sang-Moon/0000-0001-8252-952X; </t>
+          <t>Lee, Sang-Moon/0000-0001-8252-952X;</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -4731,6 +4766,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4948,6 +4984,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5165,6 +5202,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5370,6 +5408,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5579,6 +5618,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5788,6 +5828,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5997,6 +6038,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6210,6 +6252,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6411,6 +6454,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6620,6 +6664,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6837,6 +6882,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7042,6 +7088,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7247,6 +7294,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7460,6 +7508,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7681,6 +7730,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7890,6 +7940,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8099,6 +8150,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8308,6 +8360,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8521,6 +8574,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8742,6 +8796,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8951,6 +9006,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9160,6 +9216,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9369,6 +9426,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9566,6 +9624,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9775,6 +9834,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9984,6 +10044,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10193,6 +10254,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10406,6 +10468,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>3880384</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10611,6 +10678,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10812,6 +10880,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11013,6 +11082,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11214,6 +11284,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11415,6 +11486,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11632,6 +11704,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11841,6 +11914,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12046,6 +12120,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
